--- a/doc/归票投资策略.xlsx
+++ b/doc/归票投资策略.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="profitByYear" sheetId="1" r:id="rId1"/>
-    <sheet name="profitByMonth" sheetId="2" r:id="rId2"/>
+    <sheet name="年总体利润分析" sheetId="1" r:id="rId1"/>
+    <sheet name="月份平均利润分析" sheetId="2" r:id="rId2"/>
     <sheet name="结论" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>year</t>
   </si>
@@ -198,6 +198,12 @@
     <t>2016年熔断机制、减持新规等</t>
   </si>
   <si>
+    <t>赚10</t>
+  </si>
+  <si>
+    <t>赚12</t>
+  </si>
+  <si>
     <t>按年分析策略有效性</t>
   </si>
   <si>
@@ -309,13 +315,31 @@
     <t>3.操作方式</t>
   </si>
   <si>
+    <t>4.看股票价位</t>
+  </si>
+  <si>
+    <t>5.看板块</t>
+  </si>
+  <si>
     <t>牛市：可以投资</t>
   </si>
   <si>
+    <t>1(7%),2(7%),11（9%）大赚，选择priceRate. 10（9%）大赚，用growSpeed</t>
+  </si>
+  <si>
     <t>本月任意一天买，一个月后同一天卖出</t>
   </si>
   <si>
+    <t>9~29元，有上涨空间</t>
+  </si>
+  <si>
     <t>熊市：放弃</t>
+  </si>
+  <si>
+    <t>低于9元，活力不足</t>
+  </si>
+  <si>
+    <t>高于30元，风险大</t>
   </si>
   <si>
     <t>作者</t>
@@ -335,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,9 +441,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,8 +476,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,24 +524,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,15 +540,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -499,52 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF191919"/>
@@ -552,7 +562,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,25 +613,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,61 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,24 +751,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -724,54 +758,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,6 +786,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -819,21 +814,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -856,24 +860,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -883,16 +869,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -902,94 +888,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,52 +984,52 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,6 +1043,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="24" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1072,9 +1061,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1126,7 +1112,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1138,7 +1124,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -1514,7 +1500,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1529,10 +1515,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -1834,8 +1820,12 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:3">
@@ -1868,79 +1858,79 @@
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="E29" s="8" t="s">
-        <v>14</v>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="27" spans="5:7">
       <c r="E34" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>26</v>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -1948,10 +1938,10 @@
         <v>6</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2030,7 +2020,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2041,7 +2031,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2055,20 +2045,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2082,10 +2072,10 @@
         <v>0.070455</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2099,10 +2089,10 @@
         <v>0.072778</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2116,10 +2106,10 @@
         <v>0.039048</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2133,10 +2123,10 @@
         <v>0.023</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2150,10 +2140,10 @@
         <v>-0.005714</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,10 +2157,10 @@
         <v>-0.0055</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2184,10 +2174,10 @@
         <v>0.041053</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,10 +2191,10 @@
         <v>0.004</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2219,7 +2209,7 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2233,10 +2223,10 @@
         <v>0.0475</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2250,10 +2240,10 @@
         <v>0.095789</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2267,10 +2257,10 @@
         <v>-0.003684</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2293,7 +2283,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2301,38 +2291,38 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="F19" s="4" t="s">
-        <v>43</v>
+      <c r="F19" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="F20" s="5" t="s">
-        <v>44</v>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="F22" s="7" t="s">
-        <v>46</v>
+      <c r="F22" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2356,7 +2346,7 @@
       <formula>0.04</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2364,87 +2354,103 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="68.875" customWidth="1"/>
     <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>